--- a/data/questionnaires/version1/referral_condition.xlsx
+++ b/data/questionnaires/version1/referral_condition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -24,9 +24,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>question_id</t>
-  </si>
-  <si>
     <t>question_identifier</t>
   </si>
   <si>
@@ -82,6 +79,57 @@
   </si>
   <si>
     <t>item_identifier</t>
+  </si>
+  <si>
+    <t>FAMILY_BREAST_AFFECTED_FATHER</t>
+  </si>
+  <si>
+    <t>FAMILY_BREAST_AFFECTED_BROTHER</t>
+  </si>
+  <si>
+    <t>question_section_id</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>two of your family members have been affected by breast cancer</t>
+  </si>
+  <si>
+    <t>your father has been affected by breast cancer</t>
+  </si>
+  <si>
+    <t>your brother has been affected by breast cancer</t>
+  </si>
+  <si>
+    <t>two of your family members have been affected by ovarian cancer</t>
+  </si>
+  <si>
+    <t>you have family members have affected by both breast and ovarian cancer</t>
+  </si>
+  <si>
+    <t>you have more than one family member affected by breast cancer</t>
+  </si>
+  <si>
+    <t>you have more than one family member affected by ovarian cancer</t>
+  </si>
+  <si>
+    <t>your mother was under 60 when she was affected by breast cancer</t>
+  </si>
+  <si>
+    <t>your sister was under 60 when she was affected by breast cancer</t>
+  </si>
+  <si>
+    <t>your grandmother was under 40 when she was affected by breast cancer</t>
+  </si>
+  <si>
+    <t>your half-sister was under 40 when she was affected by breast cancer</t>
+  </si>
+  <si>
+    <t>your aunt was under 40 when she was affected by breast cancer</t>
+  </si>
+  <si>
+    <t>your niece was under 40 when she was affected by breast cancer</t>
   </si>
 </sst>
 </file>
@@ -448,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,443 +511,532 @@
     <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>2</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>14</v>
+      <c r="B6" s="6">
+        <v>2</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>14</v>
+      <c r="B7" s="6">
+        <v>2</v>
       </c>
       <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>14</v>
+      <c r="B9" s="3">
+        <v>3</v>
       </c>
       <c r="C9" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>14</v>
+      <c r="B10" s="3">
+        <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>4</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
         <v>4</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="D17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" s="22">
-        <v>1</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>1</v>
+      <c r="E20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24">
+        <v>4</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/questionnaires/version1/referral_condition.xlsx
+++ b/data/questionnaires/version1/referral_condition.xlsx
@@ -93,18 +93,12 @@
     <t>reason</t>
   </si>
   <si>
-    <t>two of your family members have been affected by breast cancer</t>
-  </si>
-  <si>
     <t>your father has been affected by breast cancer</t>
   </si>
   <si>
     <t>your brother has been affected by breast cancer</t>
   </si>
   <si>
-    <t>two of your family members have been affected by ovarian cancer</t>
-  </si>
-  <si>
     <t>you have family members have affected by both breast and ovarian cancer</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>your niece was under 40 when she was affected by breast cancer</t>
+  </si>
+  <si>
+    <t>two or more of your family members have been affected by breast cancer</t>
+  </si>
+  <si>
+    <t>two or more of your family members have been affected by ovarian cancer</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>11</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>13</v>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>16</v>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>13</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>16</v>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>13</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>16</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>13</v>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>16</v>
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>16</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
